--- a/tables/storytelling.xlsx
+++ b/tables/storytelling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C23ED-6AA4-194A-9D7B-3F180B6A4C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D31DB7-EA94-0145-8402-C85E2EF931AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{B5B84DCA-39F4-094E-A542-68CA0491B131}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>author</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>https://nrennie.rbind.io/scrollytelling/</t>
+  </si>
+  <si>
+    <t>https://bjnnowak.quarto.pub/journey_to_france/</t>
+  </si>
+  <si>
+    <t>A Journey Through France</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFF4C3D-D287-714F-901E-4672014BED7F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,23 +546,34 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
